--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H2">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J2">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>13.07928771283209</v>
+        <v>33.33341814215778</v>
       </c>
       <c r="R2">
-        <v>13.07928771283209</v>
+        <v>300.00076327942</v>
       </c>
       <c r="S2">
-        <v>0.0009580881696951745</v>
+        <v>0.00178923852337765</v>
       </c>
       <c r="T2">
-        <v>0.0009580881696951745</v>
+        <v>0.00178923852337765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H3">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J3">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>7.173790282061844</v>
+        <v>12.68018393268822</v>
       </c>
       <c r="R3">
-        <v>7.173790282061844</v>
+        <v>114.121655394194</v>
       </c>
       <c r="S3">
-        <v>0.0005254967817838002</v>
+        <v>0.00068063447556211</v>
       </c>
       <c r="T3">
-        <v>0.0005254967817838002</v>
+        <v>0.0006806344755621099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09708446971701</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H4">
-        <v>1.09708446971701</v>
+        <v>5.772046</v>
       </c>
       <c r="I4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J4">
-        <v>0.005756468102381792</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>58.33102825155567</v>
+        <v>0.21394088499</v>
       </c>
       <c r="R4">
-        <v>58.33102825155567</v>
+        <v>1.92546796491</v>
       </c>
       <c r="S4">
-        <v>0.004272883150902818</v>
+        <v>1.14837089768927E-05</v>
       </c>
       <c r="T4">
-        <v>0.004272883150902818</v>
+        <v>1.14837089768927E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>186.12331849021</v>
+        <v>1.924015333333333</v>
       </c>
       <c r="H5">
-        <v>186.12331849021</v>
+        <v>5.772046</v>
       </c>
       <c r="I5">
-        <v>0.9766002304952046</v>
+        <v>0.009877822204539638</v>
       </c>
       <c r="J5">
-        <v>0.9766002304952046</v>
+        <v>0.009877822204539637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>2218.936189324122</v>
+        <v>137.7957572183002</v>
       </c>
       <c r="R5">
-        <v>2218.936189324122</v>
+        <v>1240.161814964702</v>
       </c>
       <c r="S5">
-        <v>0.1625422239327435</v>
+        <v>0.007396465496622986</v>
       </c>
       <c r="T5">
-        <v>0.1625422239327435</v>
+        <v>0.007396465496622985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J6">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>1217.052734138679</v>
+        <v>3261.086633336139</v>
       </c>
       <c r="R6">
-        <v>1217.052734138679</v>
+        <v>29349.77970002525</v>
       </c>
       <c r="S6">
-        <v>0.08915193641083603</v>
+        <v>0.175045409611246</v>
       </c>
       <c r="T6">
-        <v>0.08915193641083603</v>
+        <v>0.175045409611246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.12331849021</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>186.12331849021</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J7">
-        <v>0.9766002304952046</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>9896.015164562677</v>
+        <v>1240.532193691686</v>
       </c>
       <c r="R7">
-        <v>9896.015164562677</v>
+        <v>11164.78974322518</v>
       </c>
       <c r="S7">
-        <v>0.7249060701516251</v>
+        <v>0.06658807029562158</v>
       </c>
       <c r="T7">
-        <v>0.7249060701516251</v>
+        <v>0.06658807029562157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.36251180739028</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>3.36251180739028</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J8">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.9218602339762</v>
+        <v>0.111195</v>
       </c>
       <c r="N8">
-        <v>11.9218602339762</v>
+        <v>0.333585</v>
       </c>
       <c r="O8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P8">
-        <v>0.1664368068501512</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q8">
-        <v>40.08739580280162</v>
+        <v>20.930339558625</v>
       </c>
       <c r="R8">
-        <v>40.08739580280162</v>
+        <v>188.373056027625</v>
       </c>
       <c r="S8">
-        <v>0.002936494747712513</v>
+        <v>0.001123478236943954</v>
       </c>
       <c r="T8">
-        <v>0.002936494747712513</v>
+        <v>0.001123478236943953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.36251180739028</v>
+        <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>3.36251180739028</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283187</v>
       </c>
       <c r="J9">
-        <v>0.0176433014024136</v>
+        <v>0.9663705600283184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.53895892256346</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N9">
-        <v>6.53895892256346</v>
+        <v>214.856537</v>
       </c>
       <c r="O9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P9">
-        <v>0.09128805587689628</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q9">
-        <v>21.98732658515966</v>
+        <v>13480.88276091634</v>
       </c>
       <c r="R9">
-        <v>21.98732658515966</v>
+        <v>121327.944848247</v>
       </c>
       <c r="S9">
-        <v>0.001610622684276455</v>
+        <v>0.7236136018845073</v>
       </c>
       <c r="T9">
-        <v>0.001610622684276455</v>
+        <v>0.723613601884507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.254943</v>
+      </c>
+      <c r="I10">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J10">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N10">
+        <v>51.97477</v>
+      </c>
+      <c r="O10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q10">
+        <v>1.47228930979</v>
+      </c>
+      <c r="R10">
+        <v>13.25060378811</v>
+      </c>
+      <c r="S10">
+        <v>7.902810145058932E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.902810145058931E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.254943</v>
+      </c>
+      <c r="I11">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J11">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N11">
+        <v>19.771439</v>
+      </c>
+      <c r="O11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q11">
+        <v>0.5600655525529999</v>
+      </c>
+      <c r="R11">
+        <v>5.040589972977</v>
+      </c>
+      <c r="S11">
+        <v>3.006264937999992E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.006264937999991E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.254943</v>
+      </c>
+      <c r="I12">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J12">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.111195</v>
+      </c>
+      <c r="N12">
+        <v>0.333585</v>
+      </c>
+      <c r="O12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q12">
+        <v>0.009449462294999999</v>
+      </c>
+      <c r="R12">
+        <v>0.08504516065499999</v>
+      </c>
+      <c r="S12">
+        <v>5.072189684032241E-07</v>
+      </c>
+      <c r="T12">
+        <v>5.07218968403224E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08498099999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.254943</v>
+      </c>
+      <c r="I13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="J13">
+        <v>0.000436289251037145</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N13">
+        <v>214.856537</v>
+      </c>
+      <c r="O13">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P13">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q13">
+        <v>6.086241123599</v>
+      </c>
+      <c r="R13">
+        <v>54.77617011239099</v>
+      </c>
+      <c r="S13">
+        <v>0.0003266912812381527</v>
+      </c>
+      <c r="T13">
+        <v>0.0003266912812381526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.624172</v>
+      </c>
+      <c r="I14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J14">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N14">
+        <v>51.97477</v>
+      </c>
+      <c r="O14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q14">
+        <v>78.67924512671556</v>
+      </c>
+      <c r="R14">
+        <v>708.11320614044</v>
+      </c>
+      <c r="S14">
+        <v>0.004223267346019614</v>
+      </c>
+      <c r="T14">
+        <v>0.004223267346019614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.624172</v>
+      </c>
+      <c r="I15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J15">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q15">
+        <v>29.92994284705645</v>
+      </c>
+      <c r="R15">
+        <v>269.369485623508</v>
+      </c>
+      <c r="S15">
+        <v>0.001606550114844543</v>
+      </c>
+      <c r="T15">
+        <v>0.001606550114844543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="H10">
-        <v>3.36251180739028</v>
-      </c>
-      <c r="I10">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="J10">
-        <v>0.0176433014024136</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>53.169131330974</v>
-      </c>
-      <c r="N10">
-        <v>53.169131330974</v>
-      </c>
-      <c r="O10">
-        <v>0.7422751372729526</v>
-      </c>
-      <c r="P10">
-        <v>0.7422751372729526</v>
-      </c>
-      <c r="Q10">
-        <v>178.7818318890845</v>
-      </c>
-      <c r="R10">
-        <v>178.7818318890845</v>
-      </c>
-      <c r="S10">
-        <v>0.01309618397042463</v>
-      </c>
-      <c r="T10">
-        <v>0.01309618397042463</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.624172</v>
+      </c>
+      <c r="I16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J16">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.111195</v>
+      </c>
+      <c r="N16">
+        <v>0.333585</v>
+      </c>
+      <c r="O16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q16">
+        <v>0.50497993518</v>
+      </c>
+      <c r="R16">
+        <v>4.54481941662</v>
+      </c>
+      <c r="S16">
+        <v>2.710581764232825E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.710581764232825E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.541390666666667</v>
+      </c>
+      <c r="H17">
+        <v>13.624172</v>
+      </c>
+      <c r="I17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="J17">
+        <v>0.02331532851610455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N17">
+        <v>214.856537</v>
+      </c>
+      <c r="O17">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P17">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q17">
+        <v>325.2491572680404</v>
+      </c>
+      <c r="R17">
+        <v>2927.242415412364</v>
+      </c>
+      <c r="S17">
+        <v>0.01745840523759807</v>
+      </c>
+      <c r="T17">
+        <v>0.01745840523759807</v>
       </c>
     </row>
   </sheetData>
